--- a/2_Data_Extraction/2_1_CHN_Journal_Code/2_1_5_Extract_Data/2_5_5_3_Article_Replaced/Chin_Subj_article_replaced.xlsx
+++ b/2_Data_Extraction/2_1_CHN_Journal_Code/2_1_5_Extract_Data/2_5_5_3_Article_Replaced/Chin_Subj_article_replaced.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="105">
   <si>
     <t>Original_Article_IDs</t>
   </si>
@@ -270,15 +270,6 @@
   </si>
   <si>
     <t>社交网站中的自我表露与青少年生活满意度：一个有调节的中介模型</t>
-  </si>
-  <si>
-    <t>20182191</t>
-  </si>
-  <si>
-    <t>上司地位知觉对下属默契的影响 ——反馈寻求行为和观点采择的作用</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 年轻男同性恋者自我概念清晰性与生命意义感的关系及作用机制</t>
   </si>
   <si>
     <t>20182192</t>
@@ -1309,16 +1300,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A30" sqref="$A30:$XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="24.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="59.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="88.6203703703704" customWidth="1"/>
     <col min="3" max="3" width="24.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="24.3333333333333" style="2" customWidth="1"/>
     <col min="5" max="5" width="24.3333333333333" customWidth="1"/>
@@ -1829,7 +1820,7 @@
         <v>6</v>
       </c>
       <c r="D30" s="2">
-        <v>20182190</v>
+        <v>20182194</v>
       </c>
       <c r="E30" t="s">
         <v>83</v>
@@ -1843,10 +1834,10 @@
         <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="2">
-        <v>20182194</v>
+        <v>26</v>
+      </c>
+      <c r="D31" s="4">
+        <v>20182197</v>
       </c>
       <c r="E31" t="s">
         <v>86</v>
@@ -1860,10 +1851,10 @@
         <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D32" s="4">
-        <v>20182197</v>
+        <v>20182242</v>
       </c>
       <c r="E32" t="s">
         <v>89</v>
@@ -1877,10 +1868,10 @@
         <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="4">
-        <v>20182242</v>
+        <v>6</v>
+      </c>
+      <c r="D33" s="2">
+        <v>20183269</v>
       </c>
       <c r="E33" t="s">
         <v>92</v>
@@ -1894,10 +1885,10 @@
         <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2">
-        <v>20183269</v>
+        <v>20183032</v>
       </c>
       <c r="E34" t="s">
         <v>95</v>
@@ -1911,10 +1902,10 @@
         <v>97</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D35" s="2">
-        <v>20183032</v>
+        <v>20183036</v>
       </c>
       <c r="E35" t="s">
         <v>98</v>
@@ -1928,10 +1919,10 @@
         <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2">
-        <v>20183036</v>
+        <v>20183362</v>
       </c>
       <c r="E36" t="s">
         <v>101</v>
@@ -1948,27 +1939,10 @@
         <v>12</v>
       </c>
       <c r="D37" s="2">
-        <v>20183362</v>
+        <v>20184020</v>
       </c>
       <c r="E37" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="2">
-        <v>20184020</v>
-      </c>
-      <c r="E38" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
